--- a/output/login_test_cases.xlsx
+++ b/output/login_test_cases.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,18 +28,8 @@
     <font>
       <b val="1"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -48,8 +38,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
+        <fgColor rgb="00D9E1F2"/>
+        <bgColor rgb="00D9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD9D9"/>
+        <bgColor rgb="00FFD9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -73,14 +69,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,17 +451,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
     <col width="40" customWidth="1" min="6" max="6"/>
-    <col width="60" customWidth="1" min="7" max="7"/>
-    <col width="60" customWidth="1" min="8" max="8"/>
+    <col width="40" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>用例编号</t>
@@ -488,29 +483,24 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>用例类型</t>
+          <t>前置条件</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>前置条件</t>
+          <t>测试步骤</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>测试步骤</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>预期结果</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="100" customHeight="1">
+    <row r="2" ht="60" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>e8ae2e0f-fcdb-44b6-b783-8e5c2a7bc2a7</t>
+          <t>20250311-001</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -520,169 +510,33 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>基本功能测试</t>
+          <t>用户名密码登录-正常流程</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Functional</t>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>1. 系统正常运行
+2. 数据库连接正常
+3. 用户未登录</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>浏览器已初始化
-用户已注册</t>
+          <t>1. 输入有效的用户名（长度6-20个字符）
+2. 输入有效的密码（长度8-20个字符，包含字母和数字）
+3. 点击登录按钮</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>1. 用户点击登录按钮后，系统应显示欢迎页面
-2. 用户输入用户名和密码后，系统应验证输入并显示提示信息</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>1. 成功跳转到欢迎页面
-2. 正确输入：用户名/密码正确；错误输入：显示错误提示</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="100" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>68a75d8f-4c6e-4ed0-967c-1e7e11b3d1f0</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>登录模块</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>异常情况测试</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>用户已注册
-系统处于正常运行状态</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>1. 用户输入无效用户名进行登录，系统应阻止并显示错误提示
-2. 用户尝试重复密码过多次后，系统应限制账户</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>1. 错误提示：用户名不存在
-2. 账户被锁定，无法继续登录</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="100" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>0aba5e27-d032-4ae7-8e4e-7594669bd32d</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>登录模块</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>多设备登录测试</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>Functional</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>用户已注册
-用户有至少两个设备</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1. 用户在设备A上登录后，系统应允许用户在设备B上继续登录
-2. 用户尝试在设备A和设备B同时登录，系统应提示最多支持两个设备同时登录</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1. 成功登录并显示欢迎页面
-2. 提示信息：最多支持两个设备同时登录</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="100" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>5551266e-80d6-454c-be0e-f3212a145b4b</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>登录模块</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>快速登录测试</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>Functional</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>用户已注册</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1. 用户点击“记住密码”选项后，系统应提示用户重新输入用户名和密码以验证
-2. 用户在快速登录页面输入用户名和密码后，系统应验证并显示结果</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1. 成功跳转到验证页面
-2. 正确输入：自动登录；错误输入：显示错误提示</t>
+          <t>1. 用户名输入框显示输入的内容
+2. 密码输入框显示掩码字符
+3. 登录成功，跳转到首页</t>
         </is>
       </c>
     </row>

--- a/output/login_test_cases.xlsx
+++ b/output/login_test_cases.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +510,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>用户名密码登录-正常流程</t>
+          <t>用户密码长度检查测试</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -520,23 +520,100 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>1. 系统正常运行
-2. 数据库连接正常
-3. 用户未登录</t>
+          <t>1. 系统已初始化
+2. 用户存在</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>1. 输入有效的用户名（长度6-20个字符）
-2. 输入有效的密码（长度8-20个字符，包含字母和数字）
-3. 点击登录按钮</t>
+          <t>1. 输入用户名密码，其中用户名长度为6字符。
+2. 输入用户名密码，其中用户名长度为30字符。</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>1. 用户名输入框显示输入的内容
-2. 密码输入框显示掩码字符
-3. 登录成功，跳转到首页</t>
+          <t>1. 提示信息：用户名长度必须在6-20字符之间。
+2. 提示信息：用户名长度不能超过20字符。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>20250311-002</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>登录模块</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>手机验证码有效性测试</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>1. 系统已初始化
+2. 用户存在</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>1. 输入错误的手机验证码。
+2. 输入正确的手机验证码，但缺少6位数字中的一个数字。</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>1. 提示信息：手机验证码无效。
+2. 提示信息：手机验证码必须包含6位数字。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>20250311-003</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>登录模块</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>记住密码功能测试</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1. 系统已初始化
+2. 用户存在</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1. 输入用户名和正确密码登录。
+2. 在其他设备上使用手机登录时输入错误的手机验证码。</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1. 成功登录，显示欢迎消息。
+2. 提示信息：手机验证码无效。</t>
         </is>
       </c>
     </row>
